--- a/Code/Results/Cases/Case_0_137/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_137/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.4645723023033383</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.602689749904187</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1953280098889678</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>23.45781152367226</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002905035070839151</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1696363321227423</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.4631399924386415</v>
+      </c>
+      <c r="D3">
+        <v>2.50816408817326</v>
+      </c>
+      <c r="E3">
+        <v>0.194321791068333</v>
+      </c>
+      <c r="F3">
+        <v>22.53390393590871</v>
+      </c>
+      <c r="G3">
+        <v>0.002948970267403656</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.1683998023780049</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2.562605684679681</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.4627834717538803</v>
+      </c>
+      <c r="D4">
+        <v>2.45423004214274</v>
+      </c>
+      <c r="E4">
+        <v>0.1939322793691005</v>
+      </c>
+      <c r="F4">
+        <v>22.00381439249236</v>
+      </c>
+      <c r="G4">
+        <v>0.002976847737587859</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.1678461153824742</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2.371325805375818</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.4627649441370352</v>
+      </c>
+      <c r="D5">
+        <v>2.433217602203399</v>
+      </c>
+      <c r="E5">
+        <v>0.1938287467481921</v>
+      </c>
+      <c r="F5">
+        <v>21.79653906068131</v>
+      </c>
+      <c r="G5">
+        <v>0.002988442571525454</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.1676700491685708</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2.293303068605894</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.462769393161409</v>
+      </c>
+      <c r="D6">
+        <v>2.429785029836751</v>
+      </c>
+      <c r="E6">
+        <v>0.193814828030515</v>
+      </c>
+      <c r="F6">
+        <v>21.76263216352845</v>
+      </c>
+      <c r="G6">
+        <v>0.002990382271567912</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.1676437487692226</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2.2803432614038</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.4627827145930894</v>
+      </c>
+      <c r="D7">
+        <v>2.453942832424787</v>
+      </c>
+      <c r="E7">
+        <v>0.1939306623825914</v>
+      </c>
+      <c r="F7">
+        <v>22.00098438523111</v>
+      </c>
+      <c r="G7">
+        <v>0.002977003149966816</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.1678435428652207</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2.370273851392596</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.4639669169827698</v>
+      </c>
+      <c r="D8">
+        <v>2.569203570653997</v>
+      </c>
+      <c r="E8">
+        <v>0.1949322811903542</v>
+      </c>
+      <c r="F8">
+        <v>23.13114264554736</v>
+      </c>
+      <c r="G8">
+        <v>0.002920001894546311</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.1691659758774264</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2.766433886209882</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.4706779953926343</v>
+      </c>
+      <c r="D9">
+        <v>2.831136603940081</v>
+      </c>
+      <c r="E9">
+        <v>0.1988200043224921</v>
+      </c>
+      <c r="F9">
+        <v>25.67334337927537</v>
+      </c>
+      <c r="G9">
+        <v>0.002814976794817051</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.1734974399256117</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3.540180268007362</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.4786644085002649</v>
+      </c>
+      <c r="D10">
+        <v>3.050738306275093</v>
+      </c>
+      <c r="E10">
+        <v>0.2030265578823105</v>
+      </c>
+      <c r="F10">
+        <v>27.78852652040518</v>
+      </c>
+      <c r="G10">
+        <v>0.002741316768614822</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.1779093983331421</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>4.10623028343673</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.4830612566652803</v>
+      </c>
+      <c r="D11">
+        <v>3.15791843494128</v>
+      </c>
+      <c r="E11">
+        <v>0.2052801478714201</v>
+      </c>
+      <c r="F11">
+        <v>28.81724916975065</v>
+      </c>
+      <c r="G11">
+        <v>0.002708409253288089</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.1802282249694258</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4.363110593465592</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.4848458872195636</v>
+      </c>
+      <c r="D12">
+        <v>3.199686848167062</v>
+      </c>
+      <c r="E12">
+        <v>0.2061870024783374</v>
+      </c>
+      <c r="F12">
+        <v>29.2176088657078</v>
+      </c>
+      <c r="G12">
+        <v>0.002696019248425478</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.1811555281091444</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>4.460285735713398</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.4844560421853714</v>
+      </c>
+      <c r="D13">
+        <v>3.190636366637818</v>
+      </c>
+      <c r="E13">
+        <v>0.2059892368572491</v>
+      </c>
+      <c r="F13">
+        <v>29.13088200503466</v>
+      </c>
+      <c r="G13">
+        <v>0.002698684745553201</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.1809535512837499</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4.439361943450422</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.4832056201527735</v>
+      </c>
+      <c r="D14">
+        <v>3.161330225476036</v>
+      </c>
+      <c r="E14">
+        <v>0.2053536551057107</v>
+      </c>
+      <c r="F14">
+        <v>28.84996271218745</v>
+      </c>
+      <c r="G14">
+        <v>0.002707388583408265</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.1803035010480301</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>4.371107314139238</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.4824555970167239</v>
+      </c>
+      <c r="D15">
+        <v>3.143537574970878</v>
+      </c>
+      <c r="E15">
+        <v>0.2049714535422353</v>
+      </c>
+      <c r="F15">
+        <v>28.6793384996937</v>
+      </c>
+      <c r="G15">
+        <v>0.002712728747245501</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.1799118765357832</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>4.329286057410116</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.4783932396875628</v>
+      </c>
+      <c r="D16">
+        <v>3.043891428106008</v>
+      </c>
+      <c r="E16">
+        <v>0.2028864984777599</v>
+      </c>
+      <c r="F16">
+        <v>27.72273753832042</v>
+      </c>
+      <c r="G16">
+        <v>0.002743478202043684</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.177764491645533</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>4.089429168003846</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.4761032807791707</v>
+      </c>
+      <c r="D17">
+        <v>2.984716658740012</v>
+      </c>
+      <c r="E17">
+        <v>0.2016975825071654</v>
+      </c>
+      <c r="F17">
+        <v>27.1537580944821</v>
+      </c>
+      <c r="G17">
+        <v>0.002762485792658162</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.1765299205413129</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>3.94211849063862</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.4748573836475884</v>
+      </c>
+      <c r="D18">
+        <v>2.951357236866556</v>
+      </c>
+      <c r="E18">
+        <v>0.2010454424843928</v>
+      </c>
+      <c r="F18">
+        <v>26.83267305701816</v>
+      </c>
+      <c r="G18">
+        <v>0.002773476015713923</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.1758488798463134</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3.857331695637072</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.4744475014242369</v>
+      </c>
+      <c r="D19">
+        <v>2.94017468193465</v>
+      </c>
+      <c r="E19">
+        <v>0.2008299535371947</v>
+      </c>
+      <c r="F19">
+        <v>26.72498510073729</v>
+      </c>
+      <c r="G19">
+        <v>0.002777207428217774</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.1756231576368066</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3.828614786363971</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.4763396125923975</v>
+      </c>
+      <c r="D20">
+        <v>2.99094500223282</v>
+      </c>
+      <c r="E20">
+        <v>0.2018208334902596</v>
+      </c>
+      <c r="F20">
+        <v>27.21367921948104</v>
+      </c>
+      <c r="G20">
+        <v>0.002760456547610617</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.1766583062815243</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>3.95780600327754</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.4835695670014388</v>
+      </c>
+      <c r="D21">
+        <v>3.169904911005915</v>
+      </c>
+      <c r="E21">
+        <v>0.2055388498815702</v>
+      </c>
+      <c r="F21">
+        <v>28.93217149885152</v>
+      </c>
+      <c r="G21">
+        <v>0.002704830248714044</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.1804930627927774</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>4.391158149571083</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.4889977689211378</v>
+      </c>
+      <c r="D22">
+        <v>3.293830292662278</v>
+      </c>
+      <c r="E22">
+        <v>0.2082830861681089</v>
+      </c>
+      <c r="F22">
+        <v>30.11899626177365</v>
+      </c>
+      <c r="G22">
+        <v>0.002668882636080561</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.1832886776564777</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>4.67379181795809</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.4860326743789187</v>
+      </c>
+      <c r="D23">
+        <v>3.227001954672232</v>
+      </c>
+      <c r="E23">
+        <v>0.2067879811113613</v>
+      </c>
+      <c r="F23">
+        <v>29.47927925309273</v>
+      </c>
+      <c r="G23">
+        <v>0.00268803680223425</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.1817685049774553</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>4.523002190001307</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.4762325476996807</v>
+      </c>
+      <c r="D24">
+        <v>2.988127119349656</v>
+      </c>
+      <c r="E24">
+        <v>0.2017650143042857</v>
+      </c>
+      <c r="F24">
+        <v>27.18657019180932</v>
+      </c>
+      <c r="G24">
+        <v>0.002761373773533552</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.1766001739202068</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>3.950713976768498</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.4683562637447949</v>
+      </c>
+      <c r="D25">
+        <v>2.755927793446119</v>
+      </c>
+      <c r="E25">
+        <v>0.1975453607024988</v>
+      </c>
+      <c r="F25">
+        <v>24.94604477992254</v>
+      </c>
+      <c r="G25">
+        <v>0.002842725270226867</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.1721233223214256</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>3.331249627311138</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
